--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">1.3999999999999999</t>
@@ -62,6 +62,15 @@
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y SOCIEDADES O ASOCIACIONES</t>
   </si>
   <si>
+    <t xml:space="preserve">d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y COLONIA AGRICOLA QUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOPTA DOMINIO PLENO</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.2</t>
   </si>
   <si>
@@ -80,7 +89,7 @@
     <t xml:space="preserve">POR  ACTOS DE PARTICULARES;</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.3</t>
@@ -104,33 +113,30 @@
     <t xml:space="preserve">CONFLICTOS DERIVADOS DE LA TENENCIA DE LA TIERRA (FRACC. V)</t>
   </si>
   <si>
+    <t xml:space="preserve">1.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROVERSIAS EN MATERIA AGRARIA (FRACC. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS ENTRE SI;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS  CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS ORGANOS DEL NUCLEO DE POBLACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCESION DE DERECHOS AGRARIOS (FRACC. VII)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROVERSIAS EN MATERIA AGRARIA (FRACC. VI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS ENTRE SI;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTRE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS  CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS ORGANOS DEL NUCLEO DE POBLACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUCESION DE DERECHOS AGRARIOS (FRACC. VII)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.8</t>
   </si>
   <si>
@@ -140,19 +146,19 @@
     <t xml:space="preserve">LAS HIPOTESIS CONTENIDAS EN LA FRACC. VIII Y IX DEL ART. 27 CONST.</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">EN ACTOS O CONTRATOS QUE CONTRAVIENEN LAS LEYES AGRARIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 2</t>
@@ -696,8 +702,12 @@
     </row>
     <row r="15">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
@@ -707,11 +717,9 @@
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -723,9 +731,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
+      <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -735,8 +741,12 @@
     </row>
     <row r="18">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -746,11 +756,9 @@
     </row>
     <row r="19">
       <c r="A19"/>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
+      <c r="B19"/>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -762,9 +770,7 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -774,8 +780,12 @@
     </row>
     <row r="21">
       <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -785,19 +795,15 @@
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22"/>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23">
@@ -813,23 +819,25 @@
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
       <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25"/>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -850,8 +858,12 @@
     </row>
     <row r="27">
       <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -861,12 +873,8 @@
     </row>
     <row r="28">
       <c r="A28"/>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -877,9 +885,7 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
+      <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -889,8 +895,12 @@
     </row>
     <row r="30">
       <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -901,7 +911,9 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -911,19 +923,13 @@
     </row>
     <row r="32">
       <c r="A32"/>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33">
@@ -939,23 +945,25 @@
     </row>
     <row r="34">
       <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
       <c r="I34"/>
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35"/>
+      <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -977,18 +985,16 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38">
@@ -1005,7 +1011,7 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -1020,9 +1026,7 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
+      <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -1032,8 +1036,12 @@
     </row>
     <row r="41">
       <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -1044,22 +1052,22 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42"/>
-      <c r="C42"/>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
       <c r="I42"/>
     </row>
     <row r="43">
       <c r="A43"/>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
+      <c r="B43"/>
+      <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
@@ -1080,23 +1088,25 @@
     </row>
     <row r="45">
       <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
       <c r="I45"/>
     </row>
     <row r="46">
       <c r="A46"/>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
+      <c r="B46"/>
+      <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -1118,18 +1128,16 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49">
@@ -1146,17 +1154,17 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -1173,8 +1181,12 @@
     </row>
     <row r="52">
       <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -1212,12 +1224,8 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
-      <c r="H55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" t="s">
-        <v>45</v>
-      </c>
+      <c r="H55"/>
+      <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56"/>
@@ -1238,8 +1246,12 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58"/>
@@ -1291,16 +1303,10 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2023</v>
-      </c>
+      <c r="F62"/>
+      <c r="G62"/>
       <c r="H62"/>
-      <c r="I62" t="s">
-        <v>47</v>
-      </c>
+      <c r="I62"/>
     </row>
     <row r="63">
       <c r="A63"/>
@@ -1319,10 +1325,16 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2024</v>
+      </c>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65"/>
@@ -1344,8 +1356,30 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66" t="s">
-        <v>45</v>
+      <c r="I66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">1.3999999999999999</t>
@@ -50,18 +50,36 @@
     <t xml:space="preserve">ENTRE DOS O MAS NUCLEOS DE POBLACION EJIDAL O COMUNAL</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_02</t>
+  </si>
+  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y PEQUEÑOS PROPIETARIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_04</t>
+  </si>
+  <si>
     <t xml:space="preserve">c)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y SOCIEDADES O ASOCIACIONES</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_06</t>
+  </si>
+  <si>
     <t xml:space="preserve">d)</t>
   </si>
   <si>
@@ -71,6 +89,12 @@
     <t xml:space="preserve">ADOPTA DOMINIO PLENO</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_08</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.2</t>
   </si>
   <si>
@@ -86,10 +110,19 @@
     <t xml:space="preserve">FUERA DE JUICIO</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">POR  ACTOS DE PARTICULARES;</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">H02_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_12</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.3</t>
@@ -98,6 +131,12 @@
     <t xml:space="preserve">RECONOCIMIENTO DEL REGIMEN COMUNAL (FRACC. III)</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_14</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.4</t>
   </si>
   <si>
@@ -107,12 +146,24 @@
     <t xml:space="preserve">DE AUTORIDADES AGRARIAS (FRACC.IV)</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_16</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.5</t>
   </si>
   <si>
     <t xml:space="preserve">CONFLICTOS DERIVADOS DE LA TENENCIA DE LA TIERRA (FRACC. V)</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_18</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.6</t>
   </si>
   <si>
@@ -122,19 +173,34 @@
     <t xml:space="preserve">DE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS ENTRE SI;</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_20</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENTRE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS  CON</t>
   </si>
   <si>
     <t xml:space="preserve">LOS ORGANOS DEL NUCLEO DE POBLACION</t>
   </si>
   <si>
+    <t xml:space="preserve">H02_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_22</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.7</t>
   </si>
   <si>
     <t xml:space="preserve">SUCESION DE DERECHOS AGRARIOS (FRACC. VII)</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">H02_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_24</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.8</t>
@@ -146,19 +212,25 @@
     <t xml:space="preserve">LAS HIPOTESIS CONTENIDAS EN LA FRACC. VIII Y IX DEL ART. 27 CONST.</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">H02_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_26</t>
   </si>
   <si>
     <t xml:space="preserve">EN ACTOS O CONTRATOS QUE CONTRAVIENEN LAS LEYES AGRARIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">H02_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H02_28</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 2</t>
@@ -634,8 +706,12 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10"/>
@@ -651,17 +727,21 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12"/>
@@ -677,17 +757,21 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14"/>
@@ -703,10 +787,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -719,14 +803,18 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17"/>
@@ -742,10 +830,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -758,7 +846,7 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -775,8 +863,8 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21"/>
@@ -784,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -797,14 +885,18 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23"/>
@@ -820,19 +912,21 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24"/>
+      <c r="H24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25"/>
@@ -842,8 +936,8 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25"/>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26"/>
@@ -859,17 +953,21 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="H27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28"/>
@@ -890,16 +988,16 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29"/>
+      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -912,14 +1010,18 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="H31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32"/>
@@ -929,8 +1031,8 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32"/>
+      <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33"/>
@@ -946,19 +1048,21 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34"/>
+      <c r="H34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35"/>
@@ -985,17 +1089,17 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37"/>
+      <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38"/>
@@ -1014,14 +1118,18 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="H39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40"/>
@@ -1031,16 +1139,16 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1053,16 +1161,18 @@
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42"/>
+      <c r="H42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43"/>
@@ -1072,8 +1182,8 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44">
       <c r="A44"/>
@@ -1089,19 +1199,21 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45"/>
+      <c r="H45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46"/>
@@ -1128,17 +1240,17 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48"/>
+      <c r="I48"/>
     </row>
     <row r="49">
       <c r="A49"/>
@@ -1157,16 +1269,18 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51"/>
@@ -1182,17 +1296,21 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="H52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53"/>
@@ -1247,10 +1365,10 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -1326,14 +1444,14 @@
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G64" t="n">
         <v>2024</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
@@ -1378,9 +1496,7 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="I68" t="s">
-        <v>47</v>
-      </c>
+      <c r="I68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">1.3999999999999999</t>
@@ -50,36 +50,18 @@
     <t xml:space="preserve">ENTRE DOS O MAS NUCLEOS DE POBLACION EJIDAL O COMUNAL</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y PEQUEÑOS PROPIETARIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">c)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y SOCIEDADES O ASOCIACIONES</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">d)</t>
   </si>
   <si>
@@ -89,12 +71,6 @@
     <t xml:space="preserve">ADOPTA DOMINIO PLENO</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_08</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.2</t>
   </si>
   <si>
@@ -110,19 +86,10 @@
     <t xml:space="preserve">FUERA DE JUICIO</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">POR  ACTOS DE PARTICULARES;</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_12</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.3</t>
@@ -131,12 +98,6 @@
     <t xml:space="preserve">RECONOCIMIENTO DEL REGIMEN COMUNAL (FRACC. III)</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_14</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.4</t>
   </si>
   <si>
@@ -146,24 +107,12 @@
     <t xml:space="preserve">DE AUTORIDADES AGRARIAS (FRACC.IV)</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_16</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.5</t>
   </si>
   <si>
     <t xml:space="preserve">CONFLICTOS DERIVADOS DE LA TENENCIA DE LA TIERRA (FRACC. V)</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_18</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.6</t>
   </si>
   <si>
@@ -173,34 +122,19 @@
     <t xml:space="preserve">DE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS ENTRE SI;</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_20</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENTRE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS  CON</t>
   </si>
   <si>
     <t xml:space="preserve">LOS ORGANOS DEL NUCLEO DE POBLACION</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_22</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.7</t>
   </si>
   <si>
     <t xml:space="preserve">SUCESION DE DERECHOS AGRARIOS (FRACC. VII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_24</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.8</t>
@@ -212,25 +146,19 @@
     <t xml:space="preserve">LAS HIPOTESIS CONTENIDAS EN LA FRACC. VIII Y IX DEL ART. 27 CONST.</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_26</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">EN ACTOS O CONTRATOS QUE CONTRAVIENEN LAS LEYES AGRARIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">H02_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02_28</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 2</t>
@@ -706,12 +634,8 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10">
       <c r="A10"/>
@@ -727,21 +651,17 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12"/>
@@ -757,21 +677,17 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14">
       <c r="A14"/>
@@ -787,10 +703,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -803,18 +719,14 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17">
       <c r="A17"/>
@@ -830,10 +742,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -846,7 +758,7 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -872,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -885,18 +797,14 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23">
       <c r="A23"/>
@@ -912,21 +820,19 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I24" s="1"/>
     </row>
     <row r="25">
       <c r="A25"/>
@@ -953,21 +859,17 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28">
       <c r="A28"/>
@@ -994,10 +896,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1010,18 +912,14 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32">
       <c r="A32"/>
@@ -1048,21 +946,19 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I34" s="1"/>
     </row>
     <row r="35">
       <c r="A35"/>
@@ -1089,10 +985,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1118,18 +1014,14 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40">
       <c r="A40"/>
@@ -1145,10 +1037,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1161,18 +1053,16 @@
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I42" s="1"/>
     </row>
     <row r="43">
       <c r="A43"/>
@@ -1199,21 +1089,19 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I45" s="1"/>
     </row>
     <row r="46">
       <c r="A46"/>
@@ -1240,10 +1128,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -1269,18 +1157,16 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I50" s="1"/>
     </row>
     <row r="51">
       <c r="A51"/>
@@ -1296,21 +1182,17 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53">
       <c r="A53"/>
@@ -1365,10 +1247,10 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58">
@@ -1444,14 +1326,14 @@
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G64" t="n">
         <v>2024</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65">
@@ -1496,7 +1378,9 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="I68"/>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja2.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 2</t>
